--- a/src/ESFA.DC.NCS/ESFA.DC.NCS.ReportingService/Templates/FundingSummaryReportTemplate.xlsx
+++ b/src/ESFA.DC.NCS/ESFA.DC.NCS.ReportingService/Templates/FundingSummaryReportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2BD1EA-C555-4560-9D07-B89992D90A34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECEBBE-8A66-45EE-8BAD-65410DC18E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22305" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FundingSummaryReport" sheetId="1" r:id="rId1"/>
@@ -24,27 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
-  <si>
-    <t>Provider Name :</t>
-  </si>
-  <si>
-    <t>Security Classification :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Report generated at :</t>
   </si>
   <si>
     <t>Numbers</t>
   </si>
   <si>
     <t>In Community Outcomes</t>
-  </si>
-  <si>
-    <t>Touchpoint ID :</t>
   </si>
   <si>
     <t xml:space="preserve">Total In Community Priority Group Outcomes </t>
@@ -57,9 +45,6 @@
   </si>
   <si>
     <t>Funding (£)</t>
-  </si>
-  <si>
-    <t>Last NCS Update :</t>
   </si>
 </sst>
 </file>
@@ -263,48 +248,48 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -689,11 +674,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -728,9 +711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -759,9 +740,7 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -790,13 +769,11 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -806,9 +783,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="27"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
       <c r="R3" s="2"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -821,9 +798,7 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -882,140 +857,140 @@
     </row>
     <row r="6" spans="1:28" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21">
         <v>43556</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28">
+      <c r="C6" s="22"/>
+      <c r="D6" s="21">
         <v>43586</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28">
+      <c r="E6" s="22"/>
+      <c r="F6" s="21">
         <v>43617</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28">
+      <c r="G6" s="22"/>
+      <c r="H6" s="21">
         <v>43647</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28">
+      <c r="I6" s="22"/>
+      <c r="J6" s="21">
         <v>43678</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28">
+      <c r="K6" s="22"/>
+      <c r="L6" s="21">
         <v>43709</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="28">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <v>43739</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
         <v>43770</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="28">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="21">
         <v>43800</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="28">
+      <c r="S6" s="22"/>
+      <c r="T6" s="21">
         <v>43831</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="28">
+      <c r="U6" s="22"/>
+      <c r="V6" s="21">
         <v>43862</v>
       </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="28">
+      <c r="W6" s="22"/>
+      <c r="X6" s="21">
         <v>43891</v>
       </c>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="29"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:28" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -1076,115 +1051,34 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="19"/>
     </row>
-    <row r="10" spans="1:28" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10">
-        <f>SUM(B8:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
-        <f t="shared" ref="C10:AA10" si="0">SUM(C8:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18"/>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="19"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -1213,7 +1107,7 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="19"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -1242,288 +1136,554 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="8"/>
+      <c r="AA12" s="19"/>
     </row>
     <row r="13" spans="1:28" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="10">
-        <f>SUM(B11:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="30">
-        <f t="shared" ref="C13:AA13" si="1">SUM(C11:C12)</f>
+        <f t="shared" ref="B13:AA13" si="0">SUM(B8:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="16.899999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="13">
-        <f t="shared" ref="B14:AA14" si="2">SUM(B10,B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:28" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-    </row>
-    <row r="17" ht="0.1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="267.10000000000002" customHeight="1" x14ac:dyDescent="0.35"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="10">
+        <f>SUM(B14:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" ref="C19:AA19" si="1">SUM(C14:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13">
+        <f t="shared" ref="B20:AA20" si="2">SUM(B13,B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+    </row>
+    <row r="23" spans="1:27" ht="0.1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:27" ht="267.10000000000002" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="N22:Y22"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="J6:K6"/>
@@ -1534,19 +1694,6 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N16:Y16"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.78740157480314965"/>
@@ -1555,7 +1702,7 @@
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Z14:AA14 B14 D14 F14 L14 H14 J14 C14 E14 M14 I14 K14 G14" unlockedFormula="1"/>
+    <ignoredError sqref="Z20:AA20 B20 D20 F20 L20 H20 J20 C20 E20 M20 I20 K20 G20" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/ESFA.DC.NCS/ESFA.DC.NCS.ReportingService/Templates/FundingSummaryReportTemplate.xlsx
+++ b/src/ESFA.DC.NCS/ESFA.DC.NCS.ReportingService/Templates/FundingSummaryReportTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECEBBE-8A66-45EE-8BAD-65410DC18E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16CF58-8A67-4B3C-978B-C6D8E764063B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,13 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Numbers</t>
-  </si>
-  <si>
-    <t>In Community Outcomes</t>
   </si>
   <si>
     <t xml:space="preserve">Total In Community Priority Group Outcomes </t>
@@ -45,6 +39,12 @@
   </si>
   <si>
     <t>Funding (£)</t>
+  </si>
+  <si>
+    <t>In Community Outcomes</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -857,140 +857,116 @@
     </row>
     <row r="6" spans="1:28" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21">
-        <v>43556</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="21">
-        <v>43586</v>
-      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="21">
-        <v>43617</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="21">
-        <v>43647</v>
-      </c>
+      <c r="H6" s="21"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="21">
-        <v>43678</v>
-      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="21">
-        <v>43709</v>
-      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="21">
-        <v>43739</v>
-      </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="21">
-        <v>43770</v>
-      </c>
+      <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="21">
-        <v>43800</v>
-      </c>
+      <c r="R6" s="21"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="21">
-        <v>43831</v>
-      </c>
+      <c r="T6" s="21"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="21">
-        <v>43862</v>
-      </c>
+      <c r="V6" s="21"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="21">
-        <v>43891</v>
-      </c>
+      <c r="X6" s="21"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="21" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="22"/>
     </row>
     <row r="7" spans="1:28" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -1140,7 +1116,7 @@
     </row>
     <row r="13" spans="1:28" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="10">
         <f t="shared" ref="B13:AA13" si="0">SUM(B8:B12)</f>
@@ -1395,7 +1371,7 @@
     </row>
     <row r="19" spans="1:27" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="10">
         <f>SUM(B14:B18)</f>
@@ -1504,7 +1480,7 @@
     </row>
     <row r="20" spans="1:27" ht="16.899999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="13">
         <f t="shared" ref="B20:AA20" si="2">SUM(B13,B19)</f>
